--- a/Papier/experience.xlsx
+++ b/Papier/experience.xlsx
@@ -674,25 +674,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120948992"/>
-        <c:axId val="120967168"/>
+        <c:axId val="153046400"/>
+        <c:axId val="185099392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120948992"/>
+        <c:axId val="153046400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120967168"/>
+        <c:crossAx val="185099392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120967168"/>
+        <c:axId val="185099392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +700,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120948992"/>
+        <c:crossAx val="153046400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -713,7 +713,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -780,25 +780,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="106209664"/>
-        <c:axId val="119800960"/>
+        <c:axId val="185115776"/>
+        <c:axId val="185117312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106209664"/>
+        <c:axId val="185115776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119800960"/>
+        <c:crossAx val="185117312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119800960"/>
+        <c:axId val="185117312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -806,7 +806,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106209664"/>
+        <c:crossAx val="185115776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -819,7 +819,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -918,24 +918,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82448768"/>
-        <c:axId val="82450304"/>
+        <c:axId val="185159680"/>
+        <c:axId val="185161216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82448768"/>
+        <c:axId val="185159680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82450304"/>
+        <c:crossAx val="185161216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82450304"/>
+        <c:axId val="185161216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,7 +943,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82448768"/>
+        <c:crossAx val="185159680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -956,7 +956,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -966,16 +966,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -996,16 +996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1026,15 +1026,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2705100</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1345,7 +1345,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1691,6 +1691,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>